--- a/database/seeders/_buoi_hoc_seeder.xlsx
+++ b/database/seeders/_buoi_hoc_seeder.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="buoi_hoc" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Đã kết thúc</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>buoi_hoc_id</t>
+  </si>
+  <si>
+    <t>hoc_sinh_id</t>
+  </si>
+  <si>
+    <t>ketqua</t>
   </si>
 </sst>
 </file>
@@ -395,7 +401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -574,13 +580,208 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/database/seeders/_buoi_hoc_seeder.xlsx
+++ b/database/seeders/_buoi_hoc_seeder.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\DoAn\database\seeders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuong\source\repos\DoAn_Final\database\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB5C45C-775F-4A4B-A50A-6319C227253E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="buoi_hoc" sheetId="2" r:id="rId1"/>
@@ -87,12 +86,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -399,25 +398,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="17.25" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="15.375" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -443,7 +442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -466,7 +465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -489,7 +488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -512,7 +511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -535,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -558,7 +557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
   </sheetData>
@@ -567,12 +566,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -580,20 +579,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -604,7 +603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -615,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -626,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -637,7 +636,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -648,7 +647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -659,7 +658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -670,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -681,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -692,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -703,7 +702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -714,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -725,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -736,7 +735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -747,7 +746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -758,7 +757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -769,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -787,44 +786,44 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>

--- a/database/seeders/_buoi_hoc_seeder.xlsx
+++ b/database/seeders/_buoi_hoc_seeder.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="buoi_hoc" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="110">
   <si>
     <t>This is test</t>
   </si>
@@ -81,6 +81,282 @@
   </si>
   <si>
     <t>Chưa kết thúc</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>giocheckin</t>
+  </si>
+  <si>
+    <t>giocheckout</t>
+  </si>
+  <si>
+    <t>nhan_vien_id</t>
+  </si>
+  <si>
+    <t>ngaycham</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2020-11-16 07:05:25</t>
+  </si>
+  <si>
+    <t>Đã xác nhận</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2020-11-17 07:05:30</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2020-11-18 06:59:39</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2020-11-19 07:00:44</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2020-11-20 07:00:48</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Có mặt</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>Đã chấm công</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Vắng</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2020-11-18</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2020-11-17</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2020-11-16</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>2020-11-14</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>2020-11-13</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2020-11-12</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>2020-11-11</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>2020-11-10</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>2020-11-07</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>2020-11-06</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>2020-11-05</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>2020-11-04</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>2020-11-03</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>2020-11-02</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>2020-11-16 08:30:28</t>
+  </si>
+  <si>
+    <t>2020-11-17 08:35:33</t>
+  </si>
+  <si>
+    <t>2020-11-18 08:38:41</t>
+  </si>
+  <si>
+    <t>2020-11-19 08:35:46</t>
+  </si>
+  <si>
+    <t>2020-11-20 08:30:50</t>
   </si>
 </sst>
 </file>
@@ -116,9 +392,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,7 +678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -787,48 +1064,1028 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" activeCellId="1" sqref="C2:C6 C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/database/seeders/_buoi_hoc_seeder.xlsx
+++ b/database/seeders/_buoi_hoc_seeder.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuong\source\repos\DoAn_Final\database\seeders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DoAn_Final\database\seeders\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8184"/>
   </bookViews>
   <sheets>
     <sheet name="buoi_hoc" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="diem_danh" sheetId="4" r:id="rId3"/>
     <sheet name="check_in" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -362,14 +362,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -392,10 +404,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,24 +700,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="A7:I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -719,7 +743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -742,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -765,7 +789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,7 +812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -811,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -834,8 +858,135 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -848,7 +999,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -863,13 +1014,13 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -880,7 +1031,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -891,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -902,7 +1053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -913,7 +1064,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -924,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -935,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -946,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -957,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -968,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -979,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -990,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1001,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1012,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1023,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1034,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1045,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1064,28 +1215,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" activeCellId="1" sqref="C2:C6 C9"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="K67" sqref="A58:K67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -1117,7 +1268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1137,7 +1288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1157,7 +1308,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -1177,7 +1328,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -1197,7 +1348,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -1217,7 +1368,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -1234,7 +1385,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
@@ -1251,7 +1402,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -1268,7 +1419,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -1285,7 +1436,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1302,7 +1453,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -1319,7 +1470,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -1336,7 +1487,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
@@ -1353,7 +1504,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>48</v>
       </c>
@@ -1370,7 +1521,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
@@ -1387,7 +1538,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
@@ -1404,7 +1555,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>52</v>
       </c>
@@ -1421,7 +1572,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
@@ -1438,7 +1589,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
@@ -1455,7 +1606,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>56</v>
       </c>
@@ -1472,7 +1623,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>57</v>
       </c>
@@ -1489,7 +1640,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
@@ -1506,7 +1657,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
@@ -1523,7 +1674,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
@@ -1540,7 +1691,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>63</v>
       </c>
@@ -1557,7 +1708,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>64</v>
       </c>
@@ -1574,7 +1725,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>65</v>
       </c>
@@ -1591,7 +1742,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>67</v>
       </c>
@@ -1608,7 +1759,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>68</v>
       </c>
@@ -1625,7 +1776,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>69</v>
       </c>
@@ -1642,7 +1793,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>71</v>
       </c>
@@ -1659,7 +1810,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>72</v>
       </c>
@@ -1676,7 +1827,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>73</v>
       </c>
@@ -1693,7 +1844,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>75</v>
       </c>
@@ -1710,7 +1861,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>76</v>
       </c>
@@ -1727,7 +1878,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>77</v>
       </c>
@@ -1744,7 +1895,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>79</v>
       </c>
@@ -1761,7 +1912,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>80</v>
       </c>
@@ -1778,7 +1929,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>81</v>
       </c>
@@ -1795,7 +1946,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>83</v>
       </c>
@@ -1812,7 +1963,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>84</v>
       </c>
@@ -1829,7 +1980,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>85</v>
       </c>
@@ -1846,7 +1997,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>87</v>
       </c>
@@ -1863,7 +2014,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
@@ -1880,7 +2031,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>89</v>
       </c>
@@ -1897,7 +2048,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>91</v>
       </c>
@@ -1914,7 +2065,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>92</v>
       </c>
@@ -1931,7 +2082,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>93</v>
       </c>
@@ -1948,7 +2099,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>95</v>
       </c>
@@ -1965,7 +2116,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>96</v>
       </c>
@@ -1982,7 +2133,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>97</v>
       </c>
@@ -1999,7 +2150,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>99</v>
       </c>
@@ -2016,7 +2167,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>100</v>
       </c>
@@ -2033,7 +2184,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>101</v>
       </c>
@@ -2050,7 +2201,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>103</v>
       </c>
@@ -2067,7 +2218,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>104</v>
       </c>
@@ -2083,6 +2234,156 @@
       <c r="I57" s="2" t="s">
         <v>37</v>
       </c>
+    </row>
+    <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="4"/>
+    </row>
+    <row r="59" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="4"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="4"/>
+    </row>
+    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="4"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="4"/>
+    </row>
+    <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="4"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="4"/>
+    </row>
+    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="4"/>
+    </row>
+    <row r="63" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="4"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="4"/>
+    </row>
+    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="4"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="4"/>
+    </row>
+    <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="4"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="4"/>
+    </row>
+    <row r="66" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="4"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="4"/>
+    </row>
+    <row r="67" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="4"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
